--- a/NGO-Details/src/test/java/DataFiles/ExportExcel.xlsx
+++ b/NGO-Details/src/test/java/DataFiles/ExportExcel.xlsx
@@ -348,8 +348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A1:G250"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="B231" sqref="A1:G250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
